--- a/server/src/public/fb02f.xlsx
+++ b/server/src/public/fb02f.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="nongdan8_5fe1dd6d7c0cbb0cac76dfdf" sheetId="1" r:id="rId1"/>
+    <sheet name="nongdan8_6dfdf" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -16,7 +16,7 @@
     <t>5fe1dd6d7c0cbb0cac76dfdf</t>
   </si>
   <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAATQAAAE0CAYAAACigc+fAAAAAklEQVR4AewaftIAABc3SURBVO3BQY7cWhLAQFLo+1+Z42WuHiCoqu2vyQj7g7XWeoGLtdZ6iYu11nqJi7XWeomLtdZ6iYu11nqJi7XWeomLtdZ6iYu11nqJi7XWeomLtdZ6iYu11nqJi7XWeomLtdZ6iYu11nqJi7XWeokfHlL5TRWTyidVfJLKVHGiMlXcoXJScYfKVDGpTBUnKlPFicpUcYfKVDGp3FExqUwVk8pUMalMFZPKScWJyh0Vk8pvqnjiYq21XuJirbVe4mKttV7ihw+r+CSVk4onVJ5QmSqeqDhROam4Q+Wk4qTiROWTVKaKO1TuqDip+E0Vk8pJxSdVfJLKJ12stdZLXKy11ktcrLXWS/zwZSp3VNyhMlXcUTGpfFLFpHJHxRMqU8VUMamcqJxUTBV3qNyhMlU8UXGiclJxR8WkMlU8oTJVfJLKHRXfdLHWWi9xsdZaL3Gx1lov8cN/XMWk8kTFpHKHylQxVZyoTCpPVEwqU8UTFXeonFRMKicVk8odFScqJxUnFZPKVHGiclIxqUwVJypTxX/ZxVprvcTFWmu9xMVaa73EDy9TcYfKpDJVnKg8oXJScaJyojJVTCpPqPymikllqphUpopJZar4JJWpYlKZKiaVqeIOlanizS7WWuslLtZa6yUu1lrrJX74sopvUjmpOKmYVO6oOFE5qZhUJpWTiknliYpJZaqYVKaKO1ROKiaVf5nKVDGpTBWTylQxqUwVU8WkclLxRMW/5GKttV7iYq21XuJirbVe4ocPU/mbKiaVqWJSmSomlaliUpkqTiomlaliUpkqJpWpYlL5m1SmijtUpopJ5TdVTCpTxaQyVUwqU8WkMlVMKlPFHSpTxYnKv+xirbVe4mKttV7iYq21XsL+4P+YyknFpHJHxYnKScWJylQxqfymijtUpopJZaqYVKaKf5nKVPGEylQxqUwVb3ax1lovcbHWWi9xsdZaL/HDQypTxaQyVdyhclIxqUwVk8odKicVk8qJylQxqUwqU8UdFZPKScWkcofKEyqfpDJVTCpTxaQyVUwqJxUnKlPFEyp3qEwVJypTxYnKVDGpTBVPXKy11ktcrLXWS1ystdZL/PBhKneoTBVTxR0Vk8pUMamcVJyoTBUnFZPKScU3VUwqU8UdKlPFpHJS8UkVT1RMKlPFpHJHxaQyVUwqU8WkMlVMKlPFHRWTylQxVfymi7XWeomLtdZ6iYu11nqJHx6qOFF5QuWOihOVO1S+qeJE5aRiUpkqTlSmihOVv0llqjhRmSqeqPgklROVOyomlf8nF2ut9RIXa631EhdrrfUSPzykclJxUnFS8UkVk8pUMalMFScqT1RMFScqJyonFScqn1TxL6k4UTmpeKJiUpkqTlSeULmj4kRlqjip+KSLtdZ6iYu11nqJi7XWeokfHqqYVCaVk4pJ5Y6KT1KZKiaVqeKJik+qOFH5pIpJZVK5o+KkYlKZKu5QOak4UbmjYlI5UZkq7qg4UZkqPknlpOKTLtZa6yUu1lrrJS7WWuslfvjLVKaKJ1Smiknlk1ROKiaVE5WpYlL5JpU7VE4qJpUTlaliUpkqJpWp4psqJpUTlTsqJpU7VE4qJpWp4o6KE5VvulhrrZe4WGutl7hYa62X+OHDKu5QOVGZKiaVqeKk4kRlUpkqTlSeqJhUpopJZVKZKqaKSeWJiknliYpJ5ZNUpopJZVJ5QuWkYlI5qThROamYVE5UTiruqJhUpoonLtZa6yUu1lrrJS7WWuslfvgwlZOKqeKk4pNUpoqTiknlk1ROKiaVO1SmijsqJpXfVHGiMlU8UXGi8kTFEypTxUnFHRV3qJxUTCpTxSddrLXWS1ystdZLXKy11kv88JDKHSq/SeUJlZOKE5WTiknlb6qYVKaKSeVEZaqYVE5UpoonKiaVqWJS+SaVE5UTlaniRGWqOFGZKp6o+KaLtdZ6iYu11nqJi7XWeokfHqqYVJ6oeELlmyqeqDipmFROKk5UJpWpYlKZKu6omFROKk4qJpWpYlKZKp6oOFE5qXiiYlKZKiaVqeKJikllqphUJpWTik+6WGutl7hYa62XuFhrrZewP3hAZaq4Q+WJihOVqWJSuaPiRGWqOFGZKu5QmSomlaniROWJikllqphUpopJZaqYVJ6o+CSVk4oTlU+qeELlpGJSmSpOVKaKJy7WWuslLtZa6yUu1lrrJX54qOJEZaqYKiaVqeJE5YmKO1Q+qWJSuaPipOJE5aRiUpkqJpWpYlK5o+KkYlKZKk5UpooTlanipOKTKu5QuaPipOIOlanimy7WWuslLtZa6yUu1lrrJewPHlCZKj5JZao4UTmpOFGZKiaVk4oTlaliUpkqJpWTikllqjhR+aSKE5Wp4jepnFScqNxRMamcVJyofFPFiconVTxxsdZaL3Gx1lovcbHWWi/xw1+mMlVMFScqU8WJyh0qU8WkMql8U8WJylQxqUwVT1TcoXKiMlWcqJxUfJLKVDGpTBWTylQxqUwqU8VUMalMFZPKVDGpnKhMFf+Si7XWeomLtdZ6iYu11nqJHx6qOFGZKk5U/mUqU8WkMlVMKpPKVHGiclLxSRV3qEwVT6hMFVPFpDKpTBUnFZPKVHGHyjepTBWTylTxTSonFZPKVPHExVprvcTFWmu9xMVaa72E/cEDKlPFEypTxaQyVXyTylTxX6JyUjGpnFScqEwVk8pUcaJyR8UnqdxRcaJyUjGpnFRMKlPFpDJVnKhMFZPKScWkMlV80sVaa73ExVprvcTFWmu9xA8fpjJV3FExqUwVk8pUcaJyUjFVTCp3VEwqn1QxqUwVk8qkMlVMKk+o3KEyVZyoTCpTxYnKVHFSMalMKt9UMancUTGpnFR8UsWkMlU8cbHWWi9xsdZaL3Gx1lovYX/wRSonFf8lKk9U3KFyR8WkclLxSSpTxR0qU8UdKlPFpHJHxaQyVUwqU8WkMlVMKlPFpDJVTCpTxaQyVUwqU8UdKicVk8pU8cTFWmu9xMVaa73ExVprvcQPH6YyVZyoTBWTyknFpHJHxaQyVUwVk8pJxaQyVUwqd1RMKlPFpDKp/E0qU8WkclLxSRWTyh0Vk8oTKlPFExWTyh0qU8VJxaTyTRdrrfUSF2ut9RIXa631Ej/8MpUTlaliUplU7qi4Q2WqeKJiUjmpmFQmlaliUjmpmFSmikllqphUTlSeqJhUTlSmihOVqWJSOVF5omJSOVGZKiaVqeKkYlKZKj6p4pMu1lrrJS7WWuslLtZa6yV+eEhlqphUpopJ5URlqphUTiomlZOKOypOVP5lKicqd1T8TRWTyhMqU8WkclJxonJS8UkqJypTxYnKv+RirbVe4mKttV7iYq21XuKHhyomlROVOyomlaniROWk4m+qOFGZKiaVJyomlaniROWk4g6VqeIOlaniROWkYlK5Q+WbKiaVqWJSmSomlROVqWJSmVSmikllqnjiYq21XuJirbVe4mKttV7C/uABld9UcaIyVUwqU8WJyhMVk8pJxaQyVfxNKlPFpPJNFScqJxUnKlPFpDJVTConFZPKVHGHyhMVJyonFXeonFQ8cbHWWi9xsdZaL3Gx1lov8cNDFZPKVHGHylTxTSq/qWJSmVSmiknljoonVJ6omFSmihOVSeVvqjipmFQmlanikyomlaniiYoTlanipOKTLtZa6yUu1lrrJS7WWusl7A8eUDmpOFH5poo7VKaKSeWJijtUpopJ5ZMqTlS+qWJSuaPiDpWp4g6Vk4oTlaliUpkqJpWpYlKZKiaVT6qYVO6oeOJirbVe4mKttV7iYq21XuKHD6t4ouIOlanib6q4Q2WqeKJiUvmkikllqrhDZVKZKiaVqWJSmSpOKu5QmSomlROVqWJSmSomlanipOKOijtUJpWpYlKZKj7pYq21XuJirbVe4mKttV7ih4cq7lC5Q2WqOFGZKu6ouKPik1TuqJhU7qiYVKaKJ1SmipOKk4pJ5Q6VqWJSmSpOVE5UpoqTim9SuUNlqjipuENlqnjiYq21XuJirbVe4mKttV7ihw9TmSqmiknlpOKOikllqphUpopJZaqYVKaKOyomlROVqeIJlaniROWOiidUnlCZKu5QmSpOVJ5QeUJlqpgqJpWTijtUpoqTik+6WGutl7hYa62XuFhrrZf44SGVT1L5TRXfpDJVTCpTxaRyojJVTCpTxaRyojJVTCqTyjdVTConFScqJxV3VEwqJyp3VEwqU8UTKk9UTConKlPFExdrrfUSF2ut9RIXa631EvYHD6h8U8WkckfFpHJScaIyVUwqU8WkclLxN6lMFScqU8UdKicVk8pUcYfKVDGpnFRMKicVk8odFZPKHRV3qEwVk8pU8YTKVPHExVprvcTFWmu9xMVaa73EDx9WMalMFScqk8odFZPKVDGpTCp3qPwmlTsqTlSmihOVO1SmiqliUvmmiknliYpJ5aRiUjlRmSomlaliUrmjYlKZKiaVk4rfdLHWWi9xsdZaL3Gx1lov8cOHqTxRcYfKpHJHxaQyVZyonKhMFZ9U8UTFpDJVnFRMKp+kMlVMKndUnFRMKicqU8WJylRxonJScUfFpPKbVKaKT7pYa62XuFhrrZe4WGutl/jhoYoTlUnliYq/SeWTVKaKSWWqmFSmiknlpGKqmFSmipOKSeVEZaqYVO6o+JtUpoqpYlI5qThRmSpOVE5UpopJ5ZNUpoonLtZa6yUu1lrrJS7WWuslfnhIZaq4o+IOlZOKT1KZKk5U7qiYVKaK36QyVUwqJxVPqEwVk8pUMalMFZPKVDGpTBWfpDJVTCqfVHGi8k0qv+lirbVe4mKttV7iYq21XuKHD1M5qThROak4UbmjYqp4omJSOVE5UXmi4kTlROWk4ptU7qi4Q+VEZar4popJZaqYKu5QOamYVE4qJpWTiknlky7WWuslLtZa6yUu1lrrJX74sIoTlTsq7qiYVKaKSeWOikllqvikiknlmyomlW+qmFSmiknlROWOiicqTlSmijsqPqliUplU7lA5qZhUpopPulhrrZe4WGutl7hYa62X+OGhiknliYpJZaq4o+KkYlKZKk4qJpWpYlKZKiaVSeVfUjGpTBV3qEwVk8pUMamcVJyonFScqEwVU8U3qZxUTCpTxRMqJyq/6WKttV7iYq21XuJirbVe4ocPq5hU7lCZKiaVk4oTlZOKSWWqOKmYVKaKOyomlaniROWk4m+qmFSmiknlDpWpYqq4Q+VEZao4UTmpOKmYVJ5QuaPiROVEZap44mKttV7iYq21XuJirbVe4od/TMWkclJxR8UdFScqd6hMFScqT1TcoTJV3KFyh8pUcUfFpPIvUZkqpopJZVI5qXhCZaqYVE5UpoqTiknlky7WWuslLtZa6yUu1lrrJewPHlCZKiaVqWJSOamYVE4qTlSmikllqrhD5aTiRGWqmFS+qWJSeaJiUpkqTlT+popJ5aRiUpkq7lCZKj5JZaqYVE4qJpWpYlKZKj7pYq21XuJirbVe4mKttV7ihy+rmFROKiaVqWJSmVSmim9S+aSKSeWJihOVOyomlROVE5WTihOVk4oTlaliUpkqJpUnVKaKqeJEZaqYVE4q7qiYVO6o+KaLtdZ6iYu11nqJi7XWegn7gwdUpopJ5YmKO1ROKu5QmSruUPmbKiaVqWJSmSruUJkqJpWp4gmVk4pJZap4QuWkYlKZKiaVqWJSmSp+k8pUMamcVEwqU8UTF2ut9RIXa631EhdrrfUSP3xZxR0qk8odFZPKpPKEylQxqZxUnKicVJyo3KFyonJScUfFN1VMKp+kMlVMKicVk8pU8UkqU8WkMlVMKlPFpDJVTCq/6WKttV7iYq21XuJirbVe4odfpjJVnFRMKlPFExWTyknFpPJJFScqT1RMKlPFpPKbVJ5QmSomlScqTiruqJhUTiruqJhUnlC5o+I3Xay11ktcrLXWS1ystdZL2B98kMpUMal8U8UdKicVk8pU8U0qU8WJyh0VJypTxR0qU8WkclIxqZxU3KEyVdyhMlXcoTJVfJPKVDGpTBWTylRxh8pU8UkXa631EhdrrfUSF2ut9RI//GMqTlSmikllqjipOFGZKiaVqWJSOamYVKaKSeWOiknlCZWp4g6VqWJSmVSmikllUpkqJpWpYlKZKu5QmSomlaliUpkqTlROKk5UTlQ+qWJSmSqeuFhrrZe4WGutl7hYa62X+OEvqzhRuaPiCZUTlanipGJSmVSmiknlpGJSmVS+SeWkYlJ5QuUOlROVqWJSOamYVCaVJ1SmiqliUnmiYlKZKiaVqWJSmSq+6WKttV7iYq21XuJirbVewv7gAZWpYlKZKr5J5aTiX6JyUnGiMlVMKlPFpDJVnKjcUTGpTBV3qEwVk8pUMamcVNyhclIxqZxUnKicVJyo3FFxojJVnKhMFZ90sdZaL3Gx1lovcbHWWi/xw4epPKFyUnFScaLyTRUnKneoTBVTxR0qd6icVJyonKhMFXeo3FExqZyoTBUnFZPKEypTxaQyqUwVd1ScqNyh8psu1lrrJS7WWuslLtZa6yV+eKhiUpkqnqg4UfmkijtUJpWpYqp4QmWqeKLipOJEZaq4o2JSmSpOKiaVE5WpYlKZKp6oOFE5qfimihOVk4pJZaqYVCaVqeKJi7XWeomLtdZ6iYu11nqJHx5SmSomlaliUjlRuaPiDpU7VE4qJpU7Kr6pYlJ5ouKkYlKZVE5UTlT+poo7VKaKE5Wp4omKOypOVKaKSeU3Xay11ktcrLXWS1ystdZL/PBlFScVd6hMFZPKVHFScaIyVZyoTBWTyiepTBUnKk9UTConFScVd6icVEwqJypTxaRyUnFHxSdVnKhMFZPKVHGicqIyVUwqU8UnXay11ktcrLXWS1ystdZL2B88oDJVnKicVEwqd1ScqEwVd6j8SypOVKaKSWWqmFSmiknlkyruUDmpOFG5o2JSuaNiUjmpOFGZKk5UvqniROWk4omLtdZ6iYu11nqJi7XWeokfHqq4o+KOihOVE5Wp4kTlpOJE5aRiUpkqJpWp4kTlRGWqmFSeqLhDZVKZKiaVqWJSOVGZKiaVqeKJiknlm1Smijsq7lCZVKaK33Sx1lovcbHWWi9xsdZaL/HDQyq/qeJE5Q6VqWJSOVGZKiaVO1SmihOVqWJSuaPik1SmijtUTlSmiknljopJ5aTiROUJlaniDpUnVKaKk4pJ5TddrLXWS1ystdZLXKy11kv88GEVn6RyUnGi8kTFpPI3qTxRMalMFZPKExV3VEwqU8Wk8kkqU8WJylQxVUwqU8UdKk9UTConFXeoTBUnKp90sdZaL3Gx1lovcbHWWi/xw5ep3FHxhMonqUwVJypTxaQyVZyoTBWTyh0qd1RMKicq36TySSpTxSepTBWTyjdV3KHyRMWJylTxSRdrrfUSF2ut9RIXa631Ej+8TMWkclLxhMpUMalMFScqJypTxaRyR8UdFZPKScWkcqIyVdyhMlVMKlPFExUnFZPKVPGEyh0qU8WJyh0qU8VU8U0Xa631EhdrrfUSF2ut9RI//MepTBUnKlPFExWTylRxR8WJyqRyUjGpnKjcUTGpPFFxovJJKlPFJ6lMFU+onFRMKlPFpHJHxaRyonJHxRMXa631EhdrrfUSF2ut9RI/fFnFN1WcVEwqT6hMFScqU8Wk8kkVn1RxovJExaQyVUwVd6jcofJExSepPFExqdxR8UTFb7pYa62XuFhrrZe4WGutl/jhw1R+k8pJxVTxN6mcVEwqU8WJyknFpHKiMlU8UTGpTBV3qJxUTConFZPKN6mcVEwqJypTxUnFpPKbVKaKJy7WWuslLtZa6yUu1lrrJewP1lrrBS7WWuslLtZa6yUu1lrrJS7WWuslLtZa6yUu1lrrJS7WWuslLtZa6yUu1lrrJS7WWuslLtZa6yUu1lrrJS7WWuslLtZa6yUu1lrrJf4HeAOSgRvMe24AAAAASUVORK5CYII=</t>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAATQAAAE0CAYAAACigc+fAAAAAklEQVR4AewaftIAABb8SURBVO3BQY7cWhLAQFLo+1+Z42WuHiCoqu2vyQj7g7XWeoGLtdZ6iYu11nqJi7XWeomLtdZ6iYu11nqJi7XWeomLtdZ6iYu11nqJi7XWeomLtdZ6iYu11nqJi7XWeomLtdZ6iYu11nqJi7XWeokfHlL5TRUnKlPFpPJExaTySRW/SeWJihOVqeJEZao4UbmjYlI5qZhU7qi4Q+WkYlKZKiaVOyomld9U8cTFWmu9xMVaa73ExVprvcQPH1bxSSqfVDGpTBUnKicVT6g8UXGi8kTFicqJyknFpDJVTBWTyonKScVJxaQyVUwqd1R8UsUnVXySyiddrLXWS1ystdZLXKy11kv88GUqd1TcoTJVTCpTxSdVTCpTxR0VT6hMFVPFpDJVPFExqTxRMalMFXdU3KFyh8pUcaJyh8pUMamcVHySyh0V33Sx1lovcbHWWi9xsdZaL/HD/7mKE5WpYlI5UZkqTlSmikllqpgqnlC5o2JSmSpOVE5UpoqTihOVqWJSeaLijopJZaq4o+IOlaniv+xirbVe4mKttV7iYq21XuKH/zMqJxV3VNyhMlU8oXJSMalMFU+onKjcoTJVPKFyR8WJylQxqUwVT6icqNxR8WYXa631EhdrrfUSF2ut9RI/fFnF31Rxh8pUMalMFScqd1R8ksqJylTxRMUdKlPFHSonFScqd1RMKn9TxaRyR8UTFf+Si7XWeomLtdZ6iYu11nqJHz5M5V+iMlVMKlPFpDJVTCpTxUnFpDJVTCpTxaQyVUwqU8WkcqIyVdyhMlXcoTJVnFRMKlPFScWkckfFpDJVTCpTxaQyVUwqU8WkcqIyVZyo/Msu1lrrJS7WWuslLtZa6yV+eKjiX6IyVdyhMlXcoTJV3KEyVZxU3KEyVUwqU8WkckfFExWTyhMqU8WkMlU8UXFS8Ukqn1TxX3Kx1lovcbHWWi9xsdZaL2F/8IDKVDGpfFLFicpJxRMqJxWTylQxqZxUTCpPVJyonFRMKr+p4kTljoo7VE4qJpWTikllqphUpopvUvmkim+6WGutl7hYa62XuFhrrZf44cNUpopJ5aTiN6mcVJxUTCqfpDJV/EsqfpPKScWkMlVMKicVU8WJylTxhModKlPFpHJSMVVMKicVk8qJylTxxMVaa73ExVprvcTFWmu9xA8PVdxRcaJyUnFScUfFb1I5qfgklZOKk4o7VP4mlScqJpWTiqliUjmpuKNiUpkqJpU7VE4qTlSmikllqviki7XWeomLtdZ6iYu11nqJHx5SOamYVKaKqeIJlZOKO1SmipOKSeUOlZOKE5WTipOKE5WTihOVJyo+qWJSuUPlpGJS+S+pmFTuUJkqvulirbVe4mKttV7iYq21XsL+4INUnqiYVKaKSWWqOFGZKk5UpopJ5aTiRGWqOFH5myomlZOKE5U7Kk5U7qiYVJ6omFSmijtUTiomlScqPkllqphUpoonLtZa6yUu1lrrJS7WWusl7A8eUJkqTlROKn6TyknFHSp3VEwqU8WkMlV8kspUMamcVJyoTBWTylRxh8pJxaQyVdyhclJxovJJFZPKExWTyidVfNLFWmu9xMVaa73ExVprvYT9wQMqJxWTylQxqdxRcaLyL6mYVKaKE5WTikllqrhDZao4UXmiYlK5o+IOlZOKE5Wp4kRlqrhD5Y6KSeWbKiaVk4pPulhrrZe4WGutl7hYa62X+OHDKiaVOypOVE5UpopJZaqYVKaKT1L5pIpJ5UTlCZWpYqo4UZkqTiomlTtUTiomlROVqWJS+U0Vd1Q8oXKi8jddrLXWS1ystdZLXKy11kvYHzygclIxqUwVJypTxaQyVXyTylRxonJSMamcVEwqU8UTKicVk8pJxR0qU8UdKlPFpDJVPKEyVfxLVKaKE5Wp4g6VqWJSOal44mKttV7iYq21XuJirbVe4ocPq5hUpopJZaqYKk4qTlSeqJgqJpWTiknlCZU7VKaKJ1SmikllUpkqJpWp4pNUpopJ5aRiUjlRmSomlU+qOKmYVE4qflPFJ12stdZLXKy11ktcrLXWS9gfPKByR8UdKlPFEyqfVDGp3FFxovJExYnKVDGpnFTcoXJHxRMqU8WkMlVMKlPFJ6ncUXGickfFpDJVTConFScqU8UnXay11ktcrLXWS1ystdZL/PBhFZPKpDJVTCpTxYnKVDGpTBWTylQxqUwVk8q/pOJE5UTlN1XcoTJVTCpPqEwVk8odFZPKVDGpTBUnKp9UMamcVEwqU8VUMalMFU9crLXWS1ystdZLXKy11kvYHzygckfFpPJNFZPKVHGiclLxSSonFZPKScWJylQxqUwVJyrfVDGpnFRMKlPFicodFd+kMlVMKlPFicpUMalMFXeoTBXfdLHWWi9xsdZaL3Gx1lov8cNDFXeonFTcofKbKiaVk4o7Kn5TxaQyVUwqU8VJxaQyVUwqU8WkcofKVDGpTBVTxaRyojJV3KEyVUwVk8pUcaJyojJV/JdcrLXWS1ystdZLXKy11kv88GEqU8VUcYfKVDFV3FExqUwVd1R8k8pUcYfKHRV3qJyoTBWTylRxUjGpTBWTyqQyVTxRcaJyR8WkMlV8UsWJyh0VJypTxSddrLXWS1ystdZLXKy11kv88GEVJypTxaQyVUwqU8UnqZyoTBUnKlPFicpUcUfFpDJV3KEyVTyhcofKJ1WcqDyhMlWcqJxUTCpTxRMqU8UTKn/TxVprvcTFWmu9xMVaa73EDw+pTBWTylRxh8odKlPFExWTyh0V/xKVqWJSOVG5o2KqeKLijopJZaqYKk5UJpWpYlI5qZhUnlD5poonVL7pYq21XuJirbVe4mKttV7ih79M5aRiUrlDZao4qZhUpopJ5aRiUrlD5ZMqTiomlanik1ROKu5QuUNlqvikit9UcaJyojJVTCpTxaQyVUwVk8pU8cTFWmu9xMVaa73ExVprvcQPD1V8k8o3VUwqU8VJxRMVk8pUcYfKVDGpTBWfpPJNKicV31RxovJExaRyovJJFZPKicpUcUfFJ12stdZLXKy11ktcrLXWS/zwkMpJxUnFN1WcqNyh8k0Vd6hMFZPKVHGicqIyVUwVJypTxYnKVDGpnKhMFU+oPFFxR8WkMlVMKicVn1QxqdxR8UkXa631EhdrrfUSF2ut9RI//ONUpoqTikllqjipmFSmiknlk1ROKqaKSeVEZaqYKiaVqWJSmSomlaliUjmpOKmYVKaKSeWOijsqJpXfVHGHylRxUnFScYfKVPHExVprvcTFWmu9xMVaa73ED1+mMlVMKicVk8pUcYfKEypTxW9SOal4QuUJlROVqWJSOVG5Q2WqmFSmijsqJpU7VO6omFSmihOVE5Wp4g6VqeI3Xay11ktcrLXWS1ystdZL2B88oDJVnKhMFScqd1RMKlPFicpUMalMFXeoTBV3qDxRMamcVJyo3FExqUwVd6hMFZPKHRV/k8pUcYfKVHGHylQxqdxR8Zsu1lrrJS7WWuslLtZa6yV++DCVqeJE5aTiiYpJZao4UZkqJpX/EpWp4g6VqeIOlTtUpooTlaniROUJlaliUpkqTiomlaliUjlRmSomlaliUjmpmFQmlZOKT7pYa62XuFhrrZe4WGutl/jhwyomlaliUjlRuaPiiYpJZVKZKk5UTlSmiicqJpU7VKaKqWJS+SSVqWJSmSomlROVqWJS+ZtUTlSmijtUTlTuULmj4psu1lrrJS7WWuslLtZa6yV+eKjipGJSOam4Q+WOiknlpOJEZao4qZhUJpVvqphUpopJZao4qbhD5Y6KO1SmipOKE5UTlaniN6lMFVPFpDJV3KFyh8pU8UkXa631EhdrrfUSF2ut9RI/fJjKJ6lMFScqd1RMKpPKHSpTxaQyVZyoTBWTyqRyonJHxaRyh8pUcYfKVHFS8YTKScWkMlXcoXJScaIyVUwqU8UdKlPFHRW/6WKttV7iYq21XuJirbVe4oeHVE4qJpU7Kp6ouKNiUrmjYlKZKk5UpopJZaqYVE4qJpUTlScq7qiYVE5UpoonKiaVO1TuqJhUTlSmim+qeELlpOKTLtZa6yUu1lrrJS7WWusl7A8eUJkqJpXfVDGpTBUnKlPFHSp3VEwqd1R8ksq/pOIJlZOKSeWOikllqnhC5aRiUpkqJpW/qeKbLtZa6yUu1lrrJS7WWuslfnioYlKZKk5UpooTlROVO1Smit+kclIxqUwqU8WJylRxR8WkclJxh8rfVDGpTBWfpPKEylRxUjGpnFQ8oXKiMlU8cbHWWi9xsdZaL3Gx1lov8cOHVXySylTxhMoTKlPFVPGEyh0VJypTxR0VJxWTyonKVDFVTCpPVNyhMlVMKlPFVDGpTBVTxYnKScWkMlWcVEwqn1QxqUwVn3Sx1lovcbHWWi9xsdZaL2F/8IDKVDGpTBWTyknFicpUMalMFScqU8WkckfFHSonFScqU8WkMlVMKndUTConFZPKb6qYVJ6o+Jeo3FFxovJJFZPKVPHExVprvcTFWmu9xMVaa72E/cE/ROWOikllqjhRmSomlZOKE5WTihOVOypOVL6p4kTljopPUpkqnlCZKiaVqeIJlanim1ROKv4lF2ut9RIXa631EhdrrfUSPzykclIxqdxRMalMKneoTBWTyhMqU8UnVZyoTBVTxYnKEyonFScqT6j8popJZaq4Q+WkYlI5qbhDZao4UTmpmFROKp64WGutl7hYa62XuFhrrZf44aGKSeWkYlI5UfmXVEwqU8WkclJxUnGicqIyVUwqU8WkMlVMKlPFicpJxYnKScUTKlPFHRWTyiepnFRMKlPFpHKHyknFpHJS8UkXa631EhdrrfUSF2ut9RL2B79IZar4JJWTiknlkyruUJkqJpWTijtUTipOVKaKSWWqOFE5qbhDZaqYVKaKSWWqOFGZKiaVk4oTlaniRGWquEPlpGJSeaLiky7WWuslLtZa6yUu1lrrJX54SOWOihOVJyomlTsqJpWp4kTlpOKOihOVOypOVJ6oOFE5qXii4pNU7lA5qZhUTiomlaniRGWq+KaKSeU3Xay11ktcrLXWS1ystdZL2B88oHJSMancUTGp3FExqZxUTCpTxaRyR8WJyhMVk8pU8UkqU8UdKlPFHSonFScqJxWTylQxqUwVk8oTFU+oPFHxhMpJxRMXa631EhdrrfUSF2ut9RI/PFQxqdxRMalMKlPFpDJVTCp3qDxRcYfKVPGEyonKScWJylQxqUwVk8pUMak8UTGpTBUnFZPKicpUcVIxqUwVk8qJyh0Vk8pJxaQyVUwqd1R80sVaa73ExVprvcTFWmu9xA8fVjGpTBWTyknFpHKiMlVMKlPFpDJV3KFyUjFVTCp3VNxRMak8oTJVnFRMKicVJyqTylQxqdxRMalMFScqU8UdFScVk8pUMalMFScqU8W/7GKttV7iYq21XuJirbVewv7gAZWpYlKZKk5U7qiYVO6oOFE5qbhD5aRiUpkqJpWpYlKZKk5U7qiYVKaKE5WpYlKZKp5QmSruULmjYlKZKiaVqWJSmSo+SWWq+CSVk4onLtZa6yUu1lrrJS7WWuslfnioYlKZKk5UTiruqJhUpoonKiaVqeKbVKaKSWWq+KSKk4oTlROVqWJS+SaVqWKqOFG5Q+VE5Q6VqeJEZap4QuWkYlL5pIu11nqJi7XWeomLtdZ6CfuDX6RyUjGpTBVPqEwVd6hMFScqT1RMKlPFicpJxYnKVDGpPFExqZxUnKicVEwqU8WkMlXcoXJSMalMFScqU8WJyh0Vd6hMFZPKVPFJF2ut9RIXa631EhdrrfUSP3yYyh0Vk8pUMalMFZPKScWkckfFicpUcYfKEypTxaQyqUwVU8UdFScqk8oTKneoTBWTylQxqUwVJxWTyh0qU8VUMalMFScVJypTxaRyojJVTCpTxRMXa631EhdrrfUSF2ut9RI//GMqJpWp4qRiUplUTipOVO5QmSomlaniiYonVE4qvqliUplUpopJZaqYVE4qJpWpYlK5o+KOiknlpGJSmSqeULmj4jddrLXWS1ystdZLXKy11kvYH/xFKlPFicpU8YTKVHGiclLxTSpTxaQyVXySyhMVk8rfVHGHylQxqUwVd6icVEwqU8WJylRxojJV3KEyVUwqU8UTF2ut9RIXa631EhdrrfUS9gdfpPJJFZPKVDGpnFScqJxUTConFX+TyknFpDJVnKicVDyhMlWcqEwVf5PKScWJyhMVk8pU8YTKHRWfdLHWWi9xsdZaL3Gx1lov8cNfVvFExR0Vk8o3VfxNKp+kMlVMFScqJxUnFScqJyonFd9UMamcqEwVJypTxaQyVUwqT1RMKr/pYq21XuJirbVe4mKttV7C/uABlaniDpWpYlKZKu5QmSomlaniROWk4gmVqWJSmSomlaliUpkqJpU7Kp5QeaLiDpWpYlKZKiaVT6qYVO6omFROKiaVJyomlZOKSWWqeOJirbVe4mKttV7iYq21XsL+4AGVk4pJZaqYVKaKE5WpYlI5qZhUpoonVJ6omFROKiaVqeIOlaliUvmmijtU7qj4JJWpYlI5qZhU7qg4UTmpmFSmihOVJyqeuFhrrZe4WGutl7hYa62X+OHDKiaVqWJSOVG5Q+UOlU9SOam4Q2WqOFGZKr6p4kRlqphUpooTlaliqrhDZaqYVE4qTlTuULmjYlK5o2JS+aaKb7pYa62XuFhrrZe4WGutl7A/eEBlqvgmlaliUjmpmFROKk5UnqiYVKaKSWWqOFGZKiaVT6o4UTmpOFE5qThR+aaKE5Wp4pNUTio+SeWJik+6WGutl7hYa62XuFhrrZewP3hAZao4UTmpmFSmit+kclJxovJExR0qU8UdKv+yiidUpopJZaqYVE4qvkllqjhRmSomlW+q+E0Xa631EhdrrfUSF2ut9RL2B/9hKlPFpDJVTCpTxaRyUjGpTBV3qHxTxR0qU8WkMlXcoXJSMalMFZPKHRWfpDJVnKjcUTGpTBUnKicVd6h8UsUTF2ut9RIXa631EhdrrfUSPzyk8psqpopJZaqYVO6oeELlmyruULmjYlK5Q2WqOKk4qZhU7qiYVKaKT1I5qThRmVSmikllqpgqJpUTlaniiYpvulhrrZe4WGutl7hYa62X+OHDKj5J5URlqphUpooTlaniRGWquENlqjhRmVSmiicqPqniCZU7Kk5UpopJZaq4o+KbKk4qJpWp4o6Kb1KZKp64WGutl7hYa62XuFhrrZf44ctU7qj4JpU7VKaKJ1SmijsqJpUTlZOKSWWqmComlUnlCZWpYlKZKiaVk4qTihOVOyo+SWWqmFROVE5UPqniN12stdZLXKy11ktcrLXWS/zwf6ZiUpkqJpVJ5TepTBVTxR0VJxWTylRxUnGiMlVMKt+kMlVMKlPFVDGpTBXfVDGpTBUnKicVk8pUMamcqEwVU8UnXay11ktcrLXWS1ystdZL/PByFScVk8pUcaLyX6JyUvGEyknFpHKickfFExWTyknFpDJVnKicVJxUfFPFScWJym+6WGutl7hYa62XuFhrrZf44csqvqniDpWTikllqpgqJpWp4kRlqnhCZaq4Q+WJihOVOyomlSdUpopJZaqYVE4qJpWTijtU7qg4qZhUpopJ5V92sdZaL3Gx1lovcbHWWi9hf/CAym+qmFSeqJhUpopJ5aRiUpkqnlCZKr5J5aRiUvmmiidUpooTlaliUjmp+E0qJxV3qEwVT6hMFZ90sdZaL3Gx1lovcbHWWi9hf7DWWi9wsdZaL3Gx1lovcbHWWi9xsdZaL3Gx1lovcbHWWi9xsdZaL3Gx1lovcbHWWi9xsdZaL3Gx1lovcbHWWi9xsdZaL3Gx1lovcbHWWi/xP7y3wqWZ6hyKAAAAAElFTkSuQmCC</t>
   </si>
 </sst>
 </file>
